--- a/Python_aplicado/projeto_pdf/Banco de Inspeções.xlsx
+++ b/Python_aplicado/projeto_pdf/Banco de Inspeções.xlsx
@@ -416,7 +416,7 @@
   <dimension ref="A1:E77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="18.7109375" defaultRowHeight="15"/>
